--- a/medicine/Psychotrope/Otto_Bus/Otto_Bus.xlsx
+++ b/medicine/Psychotrope/Otto_Bus/Otto_Bus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Otto Bus (Otto Mann en VO) est l'un personnage fictif de la série animée télévisée Les Simpson. C'est dans l'épisode Marge Folies (lors de son mariage) que l'on en apprend le plus sur son personnage.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolescent qui n'a jamais grandi, aux cheveux longs, toujours avec un casque de walkman sur les oreilles (c'est un grand fan de hard rock, et de Heavy-Metal, ce qui causera des dommages à son mariage dans un épisode), il est, comme son nom l'indique, le chauffeur du bus scolaire qu'utilisent Bart et Lisa pour se rendre à l'école.
 Il est surtout célèbre pour être un conducteur dangereux qui n'hésite pas à prendre des risques pour aider Bart, qui le considère comme l'adulte le plus cool du monde. Il est de ce fait considéré comme un adolescent par ses supérieurs.
@@ -552,7 +566,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des personnages des Simpson</t>
         </is>
